--- a/data/trans_bre/P23_10_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_10_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,37</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-11,43%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-35,94%</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-32,23%</t>
+          <t>-12,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>-36,7%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-33,59%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,56%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,95%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-11,63%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 2,3</t>
+          <t>-4,96; 2,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 0,15</t>
+          <t>-6,78; 0,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 0,19</t>
+          <t>-4,6; 0,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 3,43</t>
+          <t>-2,97; 3,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-47,04; 43,83</t>
+          <t>-2,5; 3,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,04; 4,77</t>
+          <t>-4,86; 1,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-55,24; 5,98</t>
+          <t>-46,98; 37,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,1; 42,59</t>
+          <t>-61,08; 2,55</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-55,82; 4,3</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-35,39; 73,52</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-23,4; 46,86</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-33,97; 19,84</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>2,25</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,71</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>34,87%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-10,61%</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-24,38%</t>
+          <t>73,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>-10,64%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-24,95%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>42,47%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9,85%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-19,61%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 6,79</t>
+          <t>0,57; 8,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,64</t>
+          <t>-2,69; 1,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 1,12</t>
+          <t>-4,63; 1,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 7,05</t>
+          <t>-2,96; 5,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,66; 140,0</t>
+          <t>-4,54; 6,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,92; 51,02</t>
+          <t>-8,48; 3,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-55,46; 25,19</t>
+          <t>4,34; 180,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,96; 142,41</t>
+          <t>-47,85; 49,29</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-54,78; 26,55</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-40,35; 155,94</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-50,59; 133,6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-55,06; 33,18</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-62,98%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-20,04%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-22,27%</t>
+          <t>-60,99%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-28,24%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-25,06%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,11%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 0,49</t>
+          <t>-10,12; 0,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 4,25</t>
+          <t>-14,76; 3,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 3,28</t>
+          <t>-8,83; 4,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-6,71; 6,57</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-91,91; 59,07</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-85,71; 174,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-75,68; 109,5</t>
+          <t>-92,46; 47,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-87,51; 150,29</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-78,77; 137,77</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-71,61; 296,2</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>0,49</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,84%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-26,72%</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-28,13%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>-28,21%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-29,37%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5,57%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-13,2%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 2,59</t>
+          <t>-1,67; 2,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 0,17</t>
+          <t>-4,07; -0,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,52; -0,28</t>
+          <t>-3,85; -0,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 3,33</t>
+          <t>-1,23; 3,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 45,16</t>
+          <t>-2,24; 3,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,65; 4,12</t>
+          <t>-4,69; 1,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,11; -4,52</t>
+          <t>-20,98; 53,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 44,8</t>
+          <t>-49,49; 0,29</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-49,37; -5,6</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-17,15; 67,65</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-23,0; 43,15</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-32,66; 13,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_10_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_10_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,99</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,02</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,28</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-12,69%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-36,7%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-33,59%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>5,56%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>3,95%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-11,63%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.5229829592022881</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-3.014892045616409</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.079096135869866</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.6593953437764575</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.3711658094332118</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-1.243444127120721</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.0683828835272223</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.3625740592857419</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.3141649877517722</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.09467065890077471</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.03946641428474105</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.09924893276393008</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,96; 2,13</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,78; 0,03</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,6; 0,04</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,97; 3,96</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-2,5; 3,57</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-4,86; 1,99</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-46,98; 37,49</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-61,08; 2,55</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-55,82; 4,3</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-35,39; 73,52</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-23,4; 46,86</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-33,97; 19,84</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.497009134500138</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.883689254266925</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.444861690120901</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.773199324142634</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-2.497371775944147</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-4.623282556818197</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4446842119041959</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6110147774238753</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.5503216415679779</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.3288898351707089</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.2339565962462725</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.3258821308700723</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.746003252860916</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.1258932376206413</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.2167940522941588</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.421461053960222</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.569649827034777</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.214768377548037</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.4811622690790703</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.02368032709145015</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.07656369818722381</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.8253389469203372</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.4685690308165618</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.2171160403460452</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,17</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,63</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,25</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-2,35</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>73,06%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-10,64%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-24,95%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>42,47%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>9,85%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-19,61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,57; 8,27</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,69; 1,67</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,63; 1,12</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,96; 5,61</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-4,54; 6,61</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-8,48; 3,17</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>4,34; 180,94</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-47,85; 49,29</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-54,78; 26,55</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-40,35; 155,94</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-50,59; 133,6</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-55,06; 33,18</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.452629050608387</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.4073479593910169</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.452761473058822</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.347212441314069</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.7065543479833833</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-2.547523018112109</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.5661701467708401</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.09482911120709399</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.2279502118685106</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.4464669462515783</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.09846941745725685</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.210404308796129</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,96</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,72</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-60,99%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-28,24%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-25,06%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-0,11%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.3523331307243115</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.639834627093594</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.368485914405966</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.793293142811692</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-4.536037050309607</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-8.593094841585948</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.06615409010269263</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4839047996470194</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.5411164565741711</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3912468250874173</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.505933734045786</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.5590634754558301</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,12; 0,64</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-14,76; 3,91</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,83; 4,08</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,71; 6,57</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-92,46; 47,61</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-87,51; 150,29</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-78,77; 137,77</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-71,61; 296,2</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.266828790481295</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.630812920421763</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.181077059910686</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.78510692014262</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>6.607752024617971</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>3.01522268776366</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.584415195296575</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.5030070761050703</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.2963415179582687</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.637945197200819</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.335973680982024</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.3014672300553613</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,87</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,97</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,1</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-1,65</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>10,45%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-28,21%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-29,37%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>17,83%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>5,57%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-13,2%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-3.532226758313917</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.144185477972381</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.519770062500321</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.2809164955005286</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.6055926363054496</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1679905054067578</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.2388545794535677</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.04746505327056729</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 2,93</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,07; -0,09</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,85; -0,34</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,23; 3,47</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-2,24; 3,23</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; 1,39</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-20,98; 53,02</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-49,49; 0,29</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-49,37; -5,6</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-17,15; 67,65</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-23,0; 43,15</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-32,66; 13,04</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.200159177968359</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.46726666736404</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.545067686420446</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.381131608857363</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.9238527296855342</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8441325635454838</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.7771171464288091</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.7164043292404044</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.6118234165245537</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.477301715347776</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.944326272841574</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.313249168762455</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.4485362878764084</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.771028125258253</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.438148210617218</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>3.287038044148783</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.7088504265252884</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.71758090981834</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-1.771673660411294</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.309299271868818</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.4937698739025706</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-1.518985452176276</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1040071671864199</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.2633846803815241</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.2730256532232566</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2130418876890313</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.05566501976602973</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.1222311197653559</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.751538001499029</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.776972510762448</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.565026326688542</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.118319469422739</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-2.237733560482418</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-4.489373875201514</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2185382256899799</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4721716875853705</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.4779930302515688</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1508393322059328</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.2300293665075507</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.3202013793700889</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.974563308217833</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.05713789755356362</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-0.1994573081228673</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.770024772025941</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.232942327193754</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.588326560818469</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.5237371440578809</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.04516717411563485</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.03438882053058727</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.7333191815284268</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.4315044178917068</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.1487529854776178</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
